--- a/fechamento_2021/fechamento_agosto/GeralAgosto8.xlsx
+++ b/fechamento_2021/fechamento_agosto/GeralAgosto8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rodolfo\Documents\Uipath\rpa_esus_edge\fechamento_2021\fechamento_agosto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAB4DD62-C238-4F9F-8CB2-C82D077F910E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A723176-12F6-4663-A84C-432359F27213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{06CF0901-E3D5-4E4A-9E4A-2A2BD596FF46}"/>
   </bookViews>
@@ -1239,8 +1239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3448B7F-0045-4396-84FF-85F92341076E}">
   <dimension ref="A1:BI126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD176"/>
+    <sheetView tabSelected="1" topLeftCell="AX106" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8096,5 +8096,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>